--- a/medicine/Nettoyage et hygiène/Henkel/Henkel.xlsx
+++ b/medicine/Nettoyage et hygiène/Henkel/Henkel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Henkel AG &amp; Co. KGaA est une entreprise allemande présente dans trois domaines d'activités : les détergents et l'entretien domestique (28 % du chiffre d’affaires en 2013), les cosmétiques (21 %), et les colles et adhésifs (50 %).
 Créé en 1876, Henkel détient des positions fortes, auprès des industriels comme des consommateurs, avec des marques comme Le Chat, Mir, Super Croix, X-TRA, Minidou, Schwarzkopf, Diadermine, Vademecum, Pritt, Pattex, Rubson ou encore Loctite.
-Employant 51 350 personnes[3], le groupe a réalisé un chiffre d’affaires de 18,714 milliards d’euros[4], soit une hausse des ventes de 3,5 % (organiquement : +3,1 %) et un résultat d’exploitation ajusté de 3,172 milliards d’euros en 2016. Les actions préférentielles Henkel sont listées à l’indice boursier allemand DAX.
+Employant 51 350 personnes, le groupe a réalisé un chiffre d’affaires de 18,714 milliards d’euros, soit une hausse des ventes de 3,5 % (organiquement : +3,1 %) et un résultat d’exploitation ajusté de 3,172 milliards d’euros en 2016. Les actions préférentielles Henkel sont listées à l’indice boursier allemand DAX.
 </t>
         </is>
       </c>
@@ -514,18 +526,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henkel est fondé en 1876 à Aix-la-Chapelle par Fritz Henkel. En 1886, le premier bureau d'export ouvre à Vienne en Autriche. En 1898, Hans Schwarzkopf ouvre une petite droguerie à Berlin. En 1900, les activités de production débutent à Düsseldorf - Holthausen.
-En 1903, Henkel crée le premier shampooing capillaire par la société Schwarzkopf. En 1907, Henkel met sur le marché sa marque Persil, « première lessive autoréactive du monde » selon Henkel. En 1922, Henkel commence sa production de colles de synthèse. En 1929, Henkel met sur le marché la première colle de synthèse au monde. À la suite de la découverte de l'hydrogénation qui permet la transformation d'huile en graisses solides, et dans un contexte de pénurie allemande sur les graisses animales et végétales dues à la politique d'autarcie menée par le régime nazi, Henkel met sur pied, en 1936-1937, l'une des trois premières flottes allemandes de chasse à la baleine [5]. En 1945, l'usine Persil à Genthin est nationalisée par l'URSS.
-Croissance post-guerre
-En 1948, Henkel créé Poly Color (shampooing de coloration). En 1954, Henkel met en vente du savon de toilette Fa. En 1967, Henkel invente la colle en bâton. En 1969, Henkel met sur le marché le premier tube de colle Pritt. En 1975, Henkel devient une société en commandite par actions (SCA). En 1985, Henkel ouvre son capital social sur la bourse allemande. En 1986, Henkel acquiert l'Union Générale des Savonneries de Marseille, qui possédait la marque Le Chat, acquise en 1975 lors de la prise de contrôle d'Unipol (Union des Industries de Produits Oléagineux)[6]. En 1987, Henkel acquiert les activités de Lesieur-Cotelle dans le domaine des produits d'entretien[7]. Henkel, qui possédait déjà Mir depuis l'acquisition d'une partie des marques de Cotelle et Foucher, récupère les marques de poudre à récurer Bref, les détergents liquides Minidou, Rex et Super Croix. Mais les marques Javel La Croix et Persavon doivent être cédées à Colgate Palmolive pour des raisons de concurrence, Henkel possédant déjà Bref Javel Net et Le Chat.
-Acquisitions post-réunification
-En 1990, Henkel se réapproprie l'usine Persil à la suite de la chute du Mur de Berlin. En 1990, Henkel rachète la marque Rubson[8]. En 1995, Henkel rachète Schwarzkopf. En 1997, Henkel reprend Loctite, et devient, selon ses propres indications, le « leader mondial des colles ». En 1999, Henkel dissout sa branche de produits chimiques, qui est transférée à la société Cognis, nouvellement créée. En 2001, Henkel vend Cognis à un groupe d'investissement. En 2004, Henkel acquiert Concorde (traitement des eaux) et Indola. En 2005, Henkel acquiert Dial, ARL &amp; Sovereign Specialty Chemical et la filiale étanchéité de Rhodia. En 2006, Henkel acquiert via Dial les marques de soins du corps Right Guard, Soft &amp; Dri et Dry Idea.
-Le 20 août 2007, AkzoNobel acquiert pour huit milliards de livres la société britannique ICI et revend ses activités dans les adhésifs et ses activités chimiques destinés à l'industrie électronique à Henkel[9], pour quatre milliards d'euros[10].
-En juin 2014, Henkel acquiert les marques américaines SexyHair, Alterna et Kenra pour 270 millions d'euros[11]. En juin 2014, Henkel acquiert de BC Partners pour 940 millions de dollars, l'entreprise française Spotless, propriétaire notamment des marques Eau Ecarlate, K2r, Catch et Vigor[12]. En octobre 2015, Henkel annonce la suppression de 1 200 postes notamment dans les adhésifs et en Chine[13].
-En juin 2016, Henkel annonce l'acquisition de Sun Products, un fabricant de lessive, pour 3,6 milliards de dollars[14]. En mars 2017, Henkel annonce faire une offre sur Darex, filiale emballage de GCP, pour environ un milliard de dollars, dettes comprises[15]. En octobre 2017, Henkel acquiert les activités de shampooing américaines de Shiseido pour 483 millions de dollars[16].
-En juillet 2021, Henkel annonce l'acquisition Swania, entreprise française possédant notamment la marque Maison Verte[17]. En parallèle, le groupe allemand revend quelques marques à Héritage, entreprise créée peu après, par les anciens employés de Swania.
+En 1903, Henkel crée le premier shampooing capillaire par la société Schwarzkopf. En 1907, Henkel met sur le marché sa marque Persil, « première lessive autoréactive du monde » selon Henkel. En 1922, Henkel commence sa production de colles de synthèse. En 1929, Henkel met sur le marché la première colle de synthèse au monde. À la suite de la découverte de l'hydrogénation qui permet la transformation d'huile en graisses solides, et dans un contexte de pénurie allemande sur les graisses animales et végétales dues à la politique d'autarcie menée par le régime nazi, Henkel met sur pied, en 1936-1937, l'une des trois premières flottes allemandes de chasse à la baleine . En 1945, l'usine Persil à Genthin est nationalisée par l'URSS.
 </t>
         </is>
       </c>
@@ -551,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Principaux actionnaires</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au 2 janvier 2020[18] :
+          <t>Croissance post-guerre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1948, Henkel créé Poly Color (shampooing de coloration). En 1954, Henkel met en vente du savon de toilette Fa. En 1967, Henkel invente la colle en bâton. En 1969, Henkel met sur le marché le premier tube de colle Pritt. En 1975, Henkel devient une société en commandite par actions (SCA). En 1985, Henkel ouvre son capital social sur la bourse allemande. En 1986, Henkel acquiert l'Union Générale des Savonneries de Marseille, qui possédait la marque Le Chat, acquise en 1975 lors de la prise de contrôle d'Unipol (Union des Industries de Produits Oléagineux). En 1987, Henkel acquiert les activités de Lesieur-Cotelle dans le domaine des produits d'entretien. Henkel, qui possédait déjà Mir depuis l'acquisition d'une partie des marques de Cotelle et Foucher, récupère les marques de poudre à récurer Bref, les détergents liquides Minidou, Rex et Super Croix. Mais les marques Javel La Croix et Persavon doivent être cédées à Colgate Palmolive pour des raisons de concurrence, Henkel possédant déjà Bref Javel Net et Le Chat.
 </t>
         </is>
       </c>
@@ -582,12 +594,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le siège social international est basé à Düsseldorf.
+          <t>Acquisitions post-réunification</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1990, Henkel se réapproprie l'usine Persil à la suite de la chute du Mur de Berlin. En 1990, Henkel rachète la marque Rubson. En 1995, Henkel rachète Schwarzkopf. En 1997, Henkel reprend Loctite, et devient, selon ses propres indications, le « leader mondial des colles ». En 1999, Henkel dissout sa branche de produits chimiques, qui est transférée à la société Cognis, nouvellement créée. En 2001, Henkel vend Cognis à un groupe d'investissement. En 2004, Henkel acquiert Concorde (traitement des eaux) et Indola. En 2005, Henkel acquiert Dial, ARL &amp; Sovereign Specialty Chemical et la filiale étanchéité de Rhodia. En 2006, Henkel acquiert via Dial les marques de soins du corps Right Guard, Soft &amp; Dri et Dry Idea.
+Le 20 août 2007, AkzoNobel acquiert pour huit milliards de livres la société britannique ICI et revend ses activités dans les adhésifs et ses activités chimiques destinés à l'industrie électronique à Henkel, pour quatre milliards d'euros.
+En juin 2014, Henkel acquiert les marques américaines SexyHair, Alterna et Kenra pour 270 millions d'euros. En juin 2014, Henkel acquiert de BC Partners pour 940 millions de dollars, l'entreprise française Spotless, propriétaire notamment des marques Eau Ecarlate, K2r, Catch et Vigor. En octobre 2015, Henkel annonce la suppression de 1 200 postes notamment dans les adhésifs et en Chine.
+En juin 2016, Henkel annonce l'acquisition de Sun Products, un fabricant de lessive, pour 3,6 milliards de dollars. En mars 2017, Henkel annonce faire une offre sur Darex, filiale emballage de GCP, pour environ un milliard de dollars, dettes comprises. En octobre 2017, Henkel acquiert les activités de shampooing américaines de Shiseido pour 483 millions de dollars.
+En juillet 2021, Henkel annonce l'acquisition Swania, entreprise française possédant notamment la marque Maison Verte. En parallèle, le groupe allemand revend quelques marques à Héritage, entreprise créée peu après, par les anciens employés de Swania.
 </t>
         </is>
       </c>
@@ -613,27 +635,171 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Principaux actionnaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 2 janvier 2020 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Henkel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Nettoyage et hygiène/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henkel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le siège social international est basé à Düsseldorf.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Henkel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Nettoyage et hygiène/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henkel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Marques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les marques internationales du groupe comme Fa ou Loctite, cohabitent avec des marques locales comme Le Chat ou Rubson[19].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les marques internationales du groupe comme Fa ou Loctite, cohabitent avec des marques locales comme Le Chat ou Rubson.
 Les domaines d'application du groupe Henkel sont : entretien de la maison, bricolage, soin du corps, cosmétique ou encore adhésifs dans l'industrie du transport, de l’électronique ou de l’emballage.
-En 2008, Henkel possédait environ 750 marques au total et déclarait vouloir réduire ce portefeuille[20] ; le groupe a confirmé cette intention lors de la présentation des résultats de 2019[21]. 
-Liste non exhaustive des marques
-Colles et adhésifs (Adhesive Technologies)
-Loctite (Super Glue 3), une marque de colles fortes
+En 2008, Henkel possédait environ 750 marques au total et déclarait vouloir réduire ce portefeuille ; le groupe a confirmé cette intention lors de la présentation des résultats de 2019. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Henkel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Nettoyage et hygiène/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henkel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Marques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste non exhaustive des marques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Colles et adhésifs (Adhesive Technologies)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Loctite (Super Glue 3), une marque de colles fortes
 Metylan (de), une marque de colles pour papier peint, créée en 1953
 Pattex, une marque de produits de collages divers, créée en 1956
 Pritt, une marque de colles dédiées aux écoliers
 Rubson, une marque de produits pour lutter contre l’humidité, créée en 1957
-Tangit, une marque de colles spéciales pour plomberie et sanitaire, créée en 1963
-Beauté (Beauty Care)
-Color Mask, la première coloration masque, créée en 2012
+Tangit, une marque de colles spéciales pour plomberie et sanitaire, créée en 1963</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Henkel</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Nettoyage et hygiène/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henkel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Marques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste non exhaustive des marques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Beauté (Beauty Care)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Color Mask, la première coloration masque, créée en 2012
 Couleur Ultime, une coloration réutilisable, créée en 2013
 Denivit (sv), une marque spécialisée dans l’hygiène dentaire, créée en 1978
-Diadermine, une marque de soins pour le visage, créée en 1904[22]
+Diadermine, une marque de soins pour le visage, créée en 1904
 Fa (en), une marque de soins pour le corps, créée en 1954
 Gliss, une gamme de soins pour les cheveux abîmés, créée en 2011
 Men Perfect, une marque de coloration cheveux pour hommes
@@ -647,10 +813,48 @@
 Schwarzkopf, une marque dédiée à l’univers du cheveu, créée en 1898
 Schwarzkopf Professional, une marque dédiée à l'univers du cheveu en salons de coiffure avec les gammes Igora, Essensity, BlondMe ou encore BC Hairtherapy
 Taft, une marque de produits coiffants pour hommes et pour femmes, créée en 1955
-Teraxyl, une marque de produits dentaires, créée en 1979[23]
-Vademecum, une marque de dentifrices aux plantes, créée en 1892
-Détergents et produits d'entretien
-Bref, une marque de produits d’entretien
+Teraxyl, une marque de produits dentaires, créée en 1979
+Vademecum, une marque de dentifrices aux plantes, créée en 1892</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Henkel</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Nettoyage et hygiène/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henkel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Marques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Liste non exhaustive des marques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Détergents et produits d'entretien</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bref, une marque de produits d’entretien
 Decap Feu, une gamme de produits nettoyants pour la cheminée, créée en 2009
 Instanet, une marque de produits d’entretien
 Le Chat, une marque de lessive pour toute la famille, créée en 1853
@@ -669,69 +873,73 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Henkel</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Nettoyage et hygiène/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Henkel</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Henkel</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Nettoyage et hygiène/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henkel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Comité de direction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Les membres du comité de direction sont en 2020[réf. nécessaire] :
-Carsten Knobel : président du comité de direction[24] ;
-Marco Swoboda : Executive Vice President Finances / Achats[25] ;
-Sylvie Nicol : Executive Vice President Ressources humaines et Services généraux[26] ;
-Jan-Dirk Auris : Executive Vice President Adhesive Technologies[27] ;
-Jens-Martin Schwärzler : Executive Vice President Beauty Care[28] ;
-Bruno Piacenza : Executive Vice President Laundry &amp; Home Care[29].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Henkel</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Nettoyage et hygiène/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Henkel</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Carsten Knobel : président du comité de direction ;
+Marco Swoboda : Executive Vice President Finances / Achats ;
+Sylvie Nicol : Executive Vice President Ressources humaines et Services généraux ;
+Jan-Dirk Auris : Executive Vice President Adhesive Technologies ;
+Jens-Martin Schwärzler : Executive Vice President Beauty Care ;
+Bruno Piacenza : Executive Vice President Laundry &amp; Home Care.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Henkel</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Nettoyage et hygiène/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henkel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Non-respect des normes européennes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 21 mai 2019, la fédération allemande pour l'environnement et la protection de la nature (Bund) révèle en utilisant les données fournies par l'agence fédérale de l'environnement allemande comme par l'Agence européenne des produits chimiques que 654 entreprises opérant en Europe ne respectent pas, entre 2014 et 2019, le protocole européen d'enregistrement, évaluation et autorisation des produits chimiques (REACH), censé protéger la santé et l'environnement des Européens. Ces entreprises, dont Henkel, emploient massivement des substances de synthèse interdites et potentiellement dangereuses[30],[31],[32].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 21 mai 2019, la fédération allemande pour l'environnement et la protection de la nature (Bund) révèle en utilisant les données fournies par l'agence fédérale de l'environnement allemande comme par l'Agence européenne des produits chimiques que 654 entreprises opérant en Europe ne respectent pas, entre 2014 et 2019, le protocole européen d'enregistrement, évaluation et autorisation des produits chimiques (REACH), censé protéger la santé et l'environnement des Européens. Ces entreprises, dont Henkel, emploient massivement des substances de synthèse interdites et potentiellement dangereuses.
 </t>
         </is>
       </c>
